--- a/WealthERPSolution/UI/WealthERP/Standard Upload Files/EquityTransaction.xlsx
+++ b/WealthERPSolution/UI/WealthERP/Standard Upload Files/EquityTransaction.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fields!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Column Oder</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>B:Buy, S:Sell</t>
-  </si>
-  <si>
-    <t>C_PANNum</t>
-  </si>
-  <si>
-    <t>PAN number of customer</t>
   </si>
   <si>
     <t xml:space="preserve">Comment </t>
@@ -316,7 +310,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -328,7 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -629,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,94 +657,96 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1">
-      <c r="A2" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="120">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="120">
+      <c r="F4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>46</v>
@@ -763,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -780,66 +775,63 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -848,13 +840,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -863,13 +855,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -878,13 +870,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -893,13 +885,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -908,13 +900,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -923,28 +915,28 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>42</v>
@@ -952,56 +944,41 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20">
+  <autoFilter ref="A1:G19">
     <filterColumn colId="4"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,27 +1000,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
